--- a/medicine/Pharmacie/Baume_du_tigre/Baume_du_tigre.xlsx
+++ b/medicine/Pharmacie/Baume_du_tigre/Baume_du_tigre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La baume du tigre (chinois simplifié : 虎标万金油 ; chinois traditionnel : 虎標萬金油 ; pinyin : hǔbiao wànjīnyóu) est un onguent de la pharmacopée chinoise. C'est un produit à usage externe, utilisé pour soulager les douleurs d'origine musculo-squelettique. Il a été développé dans les années 1870 par l'herboriste Aw Chu Kin à Rangoon en Birmanie, puis amélioré et commercialisé à Singapour par ses fils Aw Boon Haw et Aw Boon Par. Depuis 1926, il est fabriqué à Singapour et distribué par Haw Par Healthcare.
 </t>
@@ -511,13 +523,15 @@
           <t>Composition et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baume du tigre existe sous trois variétés :
 le baume du tigre rouge : contient de l'huile essentielle de cannelier de Chine, utilisé pour les douleurs et contractures musculaires et articulaires. C'est cette huile essentielle qui donne sa couleur rouge au baume ;
 le baume du tigre blanc : utilisé pour les maux de tête, la congestion nasale, les piqûres d'insectes.
 le baume du tigre noir : rare dans certains pays et ultra concentré.
-Composition des baumes du tigre[1] :
+Composition des baumes du tigre :
 Le reste du produit est composé d'une base de paraffine.
 Le camphre et le clou de girofle réchauffent alors que le menthol et le cajeput rafraîchissent.
 </t>
@@ -548,9 +562,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le baume du tigre peut être utilisé dans les cas suivants[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le baume du tigre peut être utilisé dans les cas suivants :
 douleurs musculaires et articulaires ;
 migraines et maux de tête d'intensité légère à modérée ;
 piqûres de moustique : pour soulager le prurit ;
@@ -582,9 +598,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990, un petit essai clinique réalisé sur 20 patients[3] et dont le but était de vérifier l'innocuité de onze préparations à base de plantes pour usage topique couramment utilisées à Hong Kong avait conclu que le baume du tigre provoquait sur 1 à 3 des 20 patients une légère irritation cutanée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, un petit essai clinique réalisé sur 20 patients et dont le but était de vérifier l'innocuité de onze préparations à base de plantes pour usage topique couramment utilisées à Hong Kong avait conclu que le baume du tigre provoquait sur 1 à 3 des 20 patients une légère irritation cutanée.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est, entre autres[pas clair], fabriqué et distribué par Haw Par Healthcare à Singapour, qui dispose de distributeurs exclusifs dans chaque pays.
 </t>
